--- a/C3W2-Workbooks/Demo Pivot vs Flat.xlsx
+++ b/C3W2-Workbooks/Demo Pivot vs Flat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicky\Documents\Freelance Training\Maquarie Uni\MOOCS\Data Wrangling Specialisation\Course 3\Week 2\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-Power-Tools-for-Data-Analysis\C3W2-Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2EAE2C-DAAD-4B76-80D0-2EA6B16DBE0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4078FADE-8FA5-470D-915B-127256F96023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{3AD2E4F9-0EC2-4A5E-94B9-26826EDA1A9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{3AD2E4F9-0EC2-4A5E-94B9-26826EDA1A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="154" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="22">
   <si>
     <t>Branch</t>
   </si>
@@ -93,15 +93,28 @@
   <si>
     <t>Q2 Expenses - Flattened</t>
   </si>
+  <si>
+    <t>Sum of Expenses</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,67 +197,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <fill>
@@ -355,13 +349,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="9" tint="0.39997558519241921"/>
         </left>
@@ -372,6 +359,57 @@
           <color theme="9" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,7 +452,7 @@
         <s v="June"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Expenses" numFmtId="166">
+    <cacheField name="Expenses" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="300" maxValue="5325"/>
     </cacheField>
   </cacheFields>
@@ -630,7 +668,175 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4198A550-CE8A-49CF-BABA-CBC173BE8499}" name="PivotTable4" cacheId="154" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{129A6578-77AB-41E7-AA4C-27C2F5582AD2}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K3:O19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Expenses" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4198A550-CE8A-49CF-BABA-CBC173BE8499}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="F3:J15" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -670,7 +876,7 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="166" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
@@ -735,10 +941,10 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Total Expenses" fld="3" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Total Expenses" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -761,17 +967,17 @@
     <sortCondition ref="A4:A36"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{34423EB4-FEC3-4C8E-AE86-C39B8B15D6A1}" name="Branch" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{17581582-2E4E-4692-A9E1-A69744485F01}" name="Department" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FF95C034-6348-4307-8A7C-40FCE1932DD1}" name="Month" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{226FD894-46AB-4291-BFB0-55C7934A6CFE}" name="Expenses" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{34423EB4-FEC3-4C8E-AE86-C39B8B15D6A1}" name="Branch" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{17581582-2E4E-4692-A9E1-A69744485F01}" name="Department" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{FF95C034-6348-4307-8A7C-40FCE1932DD1}" name="Month" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{226FD894-46AB-4291-BFB0-55C7934A6CFE}" name="Expenses" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6FF61EE-408F-43A6-B20F-5F262BE4A078}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6FF61EE-408F-43A6-B20F-5F262BE4A078}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:E12" xr:uid="{6CF434FF-3C69-4FA5-821C-5089A6858964}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{733BA0F2-8A6B-4672-A674-A01C43E1F4E8}" name="Branch" dataDxfId="11"/>
@@ -1050,32 +1256,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4822E6A8-CC91-40EE-A05F-929BDAE59965}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="8.4375" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="12.6875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="14.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="10" width="11.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="12.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="8.3984375" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="12.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="14.59765625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="10" width="11.8984375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="14.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="30.45" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1088,30 +1297,36 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="K3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>3394.5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="H4" t="s">
@@ -1123,18 +1338,33 @@
       <c r="J4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="K4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>2080.5</v>
       </c>
       <c r="F5" t="s">
@@ -1143,27 +1373,34 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>3394.5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>2080.5</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>1650</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="K5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>1650</v>
       </c>
       <c r="F6" t="s">
@@ -1172,27 +1409,42 @@
       <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>1800</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>4300</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>1200</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="K6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="11">
+        <v>3394.5</v>
+      </c>
+      <c r="M6" s="11">
+        <v>2080.5</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1650</v>
+      </c>
+      <c r="O6" s="11">
+        <v>7125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>1800</v>
       </c>
       <c r="F7" t="s">
@@ -1201,27 +1453,42 @@
       <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>4230</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>2820</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>800</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="K7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1800</v>
+      </c>
+      <c r="M7" s="11">
+        <v>4300</v>
+      </c>
+      <c r="N7" s="11">
+        <v>1200</v>
+      </c>
+      <c r="O7" s="11">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>4300</v>
       </c>
       <c r="F8" t="s">
@@ -1230,27 +1497,42 @@
       <c r="G8" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>3167</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>4038.4999999999995</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>2200</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+      <c r="K8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="11">
+        <v>4230</v>
+      </c>
+      <c r="M8" s="11">
+        <v>2820</v>
+      </c>
+      <c r="N8" s="11">
+        <v>800</v>
+      </c>
+      <c r="O8" s="11">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>1200</v>
       </c>
       <c r="F9" t="s">
@@ -1259,27 +1541,42 @@
       <c r="G9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>2134</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>1649.0000000000002</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>2450</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+      <c r="K9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="11">
+        <v>3167</v>
+      </c>
+      <c r="M9" s="11">
+        <v>4038.4999999999995</v>
+      </c>
+      <c r="N9" s="11">
+        <v>2200</v>
+      </c>
+      <c r="O9" s="11">
+        <v>9405.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>4230</v>
       </c>
       <c r="F10" t="s">
@@ -1288,27 +1585,34 @@
       <c r="G10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>3514.5</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>1597.5</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>2200</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
+      <c r="K10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>2820</v>
       </c>
       <c r="F11" t="s">
@@ -1317,27 +1621,42 @@
       <c r="G11" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>2139</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>5325</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>4400</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+      <c r="K11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="11">
+        <v>2134</v>
+      </c>
+      <c r="M11" s="11">
+        <v>1649.0000000000002</v>
+      </c>
+      <c r="N11" s="11">
+        <v>2450</v>
+      </c>
+      <c r="O11" s="11">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>800</v>
       </c>
       <c r="F12" t="s">
@@ -1346,27 +1665,42 @@
       <c r="G12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>1818</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>2222</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>2200</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+      <c r="K12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="11">
+        <v>3514.5</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1597.5</v>
+      </c>
+      <c r="N12" s="11">
+        <v>2200</v>
+      </c>
+      <c r="O12" s="11">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>3167</v>
       </c>
       <c r="F13" t="s">
@@ -1375,27 +1709,42 @@
       <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>2242.5</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>1950</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>1100</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+      <c r="K13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="11">
+        <v>2139</v>
+      </c>
+      <c r="M13" s="11">
+        <v>5325</v>
+      </c>
+      <c r="N13" s="11">
+        <v>4400</v>
+      </c>
+      <c r="O13" s="11">
+        <v>11864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>4038.4999999999995</v>
       </c>
       <c r="F14" t="s">
@@ -1404,27 +1753,34 @@
       <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>2005.5</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>2196.5</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>300</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+      <c r="K14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>2200</v>
       </c>
       <c r="F15" t="s">
@@ -1433,314 +1789,389 @@
       <c r="G15" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>5160</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>4212</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>2200</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+      <c r="K15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1818</v>
+      </c>
+      <c r="M15" s="11">
+        <v>2222</v>
+      </c>
+      <c r="N15" s="11">
+        <v>2200</v>
+      </c>
+      <c r="O15" s="11">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>2134</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="K16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="11">
+        <v>2242.5</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1950</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1100</v>
+      </c>
+      <c r="O16" s="11">
+        <v>5292.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>1649.0000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
+      <c r="K17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="11">
+        <v>2005.5</v>
+      </c>
+      <c r="M17" s="11">
+        <v>2196.5</v>
+      </c>
+      <c r="N17" s="11">
+        <v>300</v>
+      </c>
+      <c r="O17" s="11">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>2450</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
+      <c r="K18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="11">
+        <v>5160</v>
+      </c>
+      <c r="M18" s="11">
+        <v>4212</v>
+      </c>
+      <c r="N18" s="11">
+        <v>2200</v>
+      </c>
+      <c r="O18" s="11">
+        <v>11572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>3514.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+      <c r="K19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="11">
+        <v>31605</v>
+      </c>
+      <c r="M19" s="11">
+        <v>32391</v>
+      </c>
+      <c r="N19" s="11">
+        <v>20700</v>
+      </c>
+      <c r="O19" s="11">
+        <v>84696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>1597.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>2139</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>5325</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>1818</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>2222</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>2242.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>1950</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>1100</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>2005.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>2196.5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>5160</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>4212</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>2200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1753,16 +2184,16 @@
       <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="12.4375" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="9.8125" customWidth="1"/>
-    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" customWidth="1"/>
+    <col min="4" max="4" width="9.796875" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +2210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +2227,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1813,7 +2244,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1830,7 +2261,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1847,7 +2278,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1864,7 +2295,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1881,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1915,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1932,7 +2363,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1949,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
